--- a/inventario-pruebas-exploratorias.xlsx
+++ b/inventario-pruebas-exploratorias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Pruebas automatizadas\Entrega Final\pruebas_automatizadas_entrega_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AE9C9D-36FE-4196-BD91-0006657BD935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123B779B-92FD-4B15-8F1D-5518B25FA8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,14 +17,14 @@
     <sheet name="Lists" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Escenarios PE'!$A$1:$J$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Escenarios PE'!$A$1:$J$32</definedName>
   </definedNames>
   <calcPr calcId="181029" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="155">
   <si>
     <t>PRUEBAS EXPLORATORIAS</t>
   </si>
@@ -93,9 +93,6 @@
     <t>Listar los posts de tipo draft por medio del filtro y desde la opción</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1CnNqoLhqwiFiS2Pz_Mh8pp98II8gqfy0/view?usp=share_link</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -108,9 +105,6 @@
     <t>Listar los posts de tipo draft filtrados por tag</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1iHIZX4LaSwrQuK5SzuR6bAK4QzfTDfqH/view?usp=share_link</t>
-  </si>
-  <si>
     <t>PR003</t>
   </si>
   <si>
@@ -120,16 +114,10 @@
     <t>Agregar una opción en el menú al implementar un filtro de tag en los Post</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1tsjuxQR6iGZSkg61K5PtTfg8zEL-7s1X/view?usp=share_link</t>
-  </si>
-  <si>
     <t>PR004</t>
   </si>
   <si>
     <t>Agregar una opción en el menú al implementar un filtro de tag en los Post, posteriormente se elimina el tag</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1S01cW1J1vs1U446t8bfrDwPz8O1ofnds/view?usp=share_link</t>
   </si>
   <si>
     <t>PR005</t>
@@ -142,39 +130,18 @@
 </t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1T4jXMIKAqRsVJiy9fG-Rp-5iFwP6RL75/view?usp=share_link</t>
-  </si>
-  <si>
     <t>PR006</t>
   </si>
   <si>
     <t>Listar las páginas con dos tags asignados y posteriormente filtrar por tag</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1snFu2oDw2PNSsUWmA9hgq977RiZra5dl/view?usp=share_link</t>
-  </si>
-  <si>
     <t>PR007</t>
   </si>
   <si>
-    <t>Consultar miembros filtrados por la última visita</t>
-  </si>
-  <si>
-    <t>Consultar miembros filtrados por última visita</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/14Bs6LERd-FnPwrH9RGuVIJjiEQIqam8E/view?usp=share_link</t>
-  </si>
-  <si>
     <t>PR008</t>
   </si>
   <si>
-    <t>El campo tipo fecha no tiene la misma zona horario que el sistema</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1epJyvvSikuQ3zQ4lsaQwoXD2P001OMAw/view?usp=share_link</t>
-  </si>
-  <si>
     <t>PR009</t>
   </si>
   <si>
@@ -184,18 +151,12 @@
     <t>Crear o modificar una página y asignarle dos tags diferentes</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/18bI2RHxfNCQ4np1-wH0ULeAcO992M33m/view?usp=share_link</t>
-  </si>
-  <si>
     <t>PR010</t>
   </si>
   <si>
     <t>Crear o modificar una página y asignarle tags con el mismo nombre</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/10f3tNGksvMbOazed7wLn2UrQvDREyb4o/view?usp=share_link</t>
-  </si>
-  <si>
     <t>PR011</t>
   </si>
   <si>
@@ -208,18 +169,12 @@
     <t>Listar las publicaciones en Ghost y filtrarlas por una etiqueta</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1O1GuCxKn3RZm_v3Q5dkabSyR30hJb0aD/view?usp=sharing</t>
-  </si>
-  <si>
     <t>PR012</t>
   </si>
   <si>
     <t>Listar las publicaciones en Ghost que tienen mas de una etiqueta asociada mediante el filtro de etiqueta</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1eceKWknIVIc8-Xq6-o5W0Pfv_hlRHYeB/view?usp=share_link</t>
-  </si>
-  <si>
     <t>PR013</t>
   </si>
   <si>
@@ -229,18 +184,12 @@
     <t>Listar las etiquetas que se encuentran creadas en Ghost para en web site</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1YfvAMiuktKHMI-HEE44KrA3Eq4gaTVV1/view?usp=sharing</t>
-  </si>
-  <si>
     <t>PR014</t>
   </si>
   <si>
     <t xml:space="preserve">Listar las etiquetas cuando se asocia una misma etiqueta a una pagina y una publicacion </t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1VhGUX0qX2ANvaW2Rsu_VX3fLSiCkoBEC/view?usp=sharing</t>
-  </si>
-  <si>
     <t>PR015</t>
   </si>
   <si>
@@ -250,60 +199,21 @@
     <t>Crear dos pagina de borrador y ver que la liste correctamente</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1ecwWsm161o17BMztIJ6gqa_xMKysGaja/view?usp=sharing</t>
-  </si>
-  <si>
     <t>PR016</t>
   </si>
   <si>
     <t>Crear una pagina de borrador, asociarle una etiqueta, luego listarla y filtrarla por etiqueta</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1o9YnKgel0AAVDY6Dp6yjYzEicM7c--14/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>PR017</t>
-  </si>
-  <si>
-    <t>Consultar miembros filtrados por la fecha de creación</t>
-  </si>
-  <si>
-    <t>Crear un miembro en el sitio web, luego consultarlo mediante el filtro fecha de creacion</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/17Nu4wZRzR7fUDiWtXkaXLBNjRm_yDegh/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>PR018</t>
-  </si>
-  <si>
-    <t>Ajustar la configuracion horaria de la aplicación a una diferente de la maquina local, crear un usuario y luego consultarlo mediante el filtro fecha de creacion</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1pcBKyJQzYgPGPl_8r_t12PJFF7aGujAS/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>PR019</t>
-  </si>
-  <si>
     <t>Crear o modificar una publicación y asignarles etiquetas</t>
   </si>
   <si>
     <t>Crear y modificar una publicacion y asignarle una etiqueta</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/12TLwoukzn4q7TPHRkAFHa3jo2OFeJW6v/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>PR020</t>
-  </si>
-  <si>
     <t>Crear dos etiquetas del mismo nombre, pero diferente slug y asignar dichas etiquetas a una publicacion</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1TrToHyEL5jINRx10qcURmHgdQT_zr4oo/view?usp=sharing</t>
-  </si>
-  <si>
     <t>PR021</t>
   </si>
   <si>
@@ -478,9 +388,6 @@
     <t>https://drive.google.com/file/d/1CrTRjAmzycx04JqsiapBsPFkE-TzTQ-8/view?usp=share_link</t>
   </si>
   <si>
-    <t>PR038</t>
-  </si>
-  <si>
     <t>Design</t>
   </si>
   <si>
@@ -490,9 +397,6 @@
     <t>https://drive.google.com/file/d/1QuZDz6uRjT_pfBKxskvnQqgHLPggws3u/view?usp=share_link</t>
   </si>
   <si>
-    <t>PR039</t>
-  </si>
-  <si>
     <t>Perfil</t>
   </si>
   <si>
@@ -502,9 +406,6 @@
     <t>https://drive.google.com/file/d/1UcAqqX_TRc8PDJ495YHmw4yyK8SPMuOu/view?usp=share_link</t>
   </si>
   <si>
-    <t>PR040</t>
-  </si>
-  <si>
     <t>Tag</t>
   </si>
   <si>
@@ -512,9 +413,6 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/19YbaCjp4Xr_skgqOmhVRQI-E05Qo5-u3/view?usp=share_link</t>
-  </si>
-  <si>
-    <t>PR041</t>
   </si>
   <si>
     <t>Eliminar tag y post asociados</t>
@@ -537,6 +435,66 @@
   <si>
     <t>Sistema operativo. Windows 11
 Browser Microsoft Edge Versión 112.0.1722.23 (Compilación oficial) dev (64 bits)</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1SZaPr_w7tLsPDgHMS5VItvu218myNKLp/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1BAJxTIpTXcIGHCWCqoXyLtcPhK5vXX0g/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1bwxvJpJUwzrEodxpxzddWQvk-Yso4uPV/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ANGPMYpHgIegpBXVFZKva7EFyhv8C2Cs/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Er1jeH8UlMNTR8FHkJdRAosfprm0DnbA/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Fl1TEQBy_8x0Rqedw4eYRUqvU8_fPS-N/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1nDUpsoGSOs4wL2UcWOn_3IQiTeJJ7kbn/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1c32v0ZTR9mj0ATlVeJZqZWci7oL5jJ1T/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1gW03Tf1pjB57kexKtcNkb8d3vY8PxBx-/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/11QMqEUvm-kfcVxaePZ9-5JEMvEWYoc-y/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1r5tktUpIJygY7w5XsMmS09ISQUS-WJUQ/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1M6IO2sZEM1Z06OF-a2_VFnPfzLxMoojy/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1yu3HFBNJz_re_Wai7f6G-sN2BByjNtnE/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1uOMV0NxDVxCAvtZLhYY73cOISYolJ7SG/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1f99IplZal2A7GzOMywLocvbxo_851NPP/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1SfFr1bF3pJFOBXRa1tNccQftwPw_IPN0/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>PR017</t>
+  </si>
+  <si>
+    <t>PR018</t>
+  </si>
+  <si>
+    <t>PR019</t>
+  </si>
+  <si>
+    <t>PR020</t>
   </si>
 </sst>
 </file>
@@ -611,7 +569,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -693,19 +651,6 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
@@ -718,7 +663,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -753,32 +698,32 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -791,18 +736,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1086,10 +1019,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:J50"/>
+  <dimension ref="B1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1117,17 +1050,17 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
@@ -1144,46 +1077,46 @@
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="31"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="29"/>
     </row>
     <row r="5" spans="2:10" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="34"/>
+      <c r="C5" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="26"/>
     </row>
     <row r="6" spans="2:10" ht="81.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="34"/>
+      <c r="C6" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="24"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="26"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
@@ -1197,17 +1130,17 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
     </row>
     <row r="9" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
@@ -1243,7 +1176,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="6">
-        <v>45017</v>
+        <v>45073</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>16</v>
@@ -1261,18 +1194,18 @@
         <v>20</v>
       </c>
       <c r="I10" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="6">
-        <v>44930</v>
+        <v>45073</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>16</v>
@@ -1284,13 +1217,13 @@
         <v>18</v>
       </c>
       <c r="G11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="I11" s="8" t="s">
-        <v>26</v>
+        <v>136</v>
       </c>
       <c r="J11" s="5">
         <v>1</v>
@@ -1298,16 +1231,16 @@
     </row>
     <row r="12" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12" s="6">
-        <v>45017</v>
+        <v>45073</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>18</v>
@@ -1316,56 +1249,56 @@
         <v>19</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>30</v>
+        <v>137</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="60.75" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C13" s="6">
-        <v>45017</v>
+        <v>45073</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="J13" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C14" s="6">
-        <v>45017</v>
+        <v>45073</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>18</v>
@@ -1374,56 +1307,56 @@
         <v>19</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C15" s="6">
-        <v>45017</v>
+        <v>45073</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="J15" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C16" s="6">
-        <v>45017</v>
+        <v>45073</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>18</v>
@@ -1432,114 +1365,114 @@
         <v>19</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>44</v>
+        <v>141</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C17" s="6">
-        <v>45017</v>
+        <v>45073</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I17" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="J17" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="6">
+        <v>45073</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="6">
+        <v>45073</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="J17" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="6">
-        <v>45017</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="6">
-        <v>45017</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="I19" s="8" t="s">
-        <v>54</v>
+        <v>144</v>
       </c>
       <c r="J19" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C20" s="6">
-        <v>45018</v>
+        <v>45073</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>18</v>
@@ -1548,56 +1481,56 @@
         <v>19</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>59</v>
+        <v>145</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="63" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C21" s="6">
-        <v>45018</v>
+        <v>45073</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>62</v>
+        <v>146</v>
       </c>
       <c r="J21" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" ht="63" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C22" s="6">
-        <v>45018</v>
+        <v>45073</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>18</v>
@@ -1606,405 +1539,405 @@
         <v>19</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>66</v>
+        <v>147</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="6">
+        <v>45073</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="J23" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B24" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="6">
+        <v>45073</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="6">
+        <v>45073</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="J25" s="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="19">
+        <v>45017</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="I26" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="J26" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B27" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C27" s="10">
+        <v>45017</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="J27" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="B28" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C28" s="10">
+        <v>45017</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="J28" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="B29" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C29" s="10">
+        <v>45017</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="J29" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B30" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="10">
+        <v>45018</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="J30" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B31" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C31" s="10">
         <v>45018</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="J23" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B24" s="5" t="s">
+      <c r="D31" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C32" s="10">
         <v>45018</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7" t="s">
+      <c r="D32" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="I24" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="6">
-        <v>45018</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J25" s="5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="6">
-        <v>45018</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" ht="75.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" s="21">
-        <v>45018</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H27" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="I27" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="J27" s="20">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B28" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" s="16">
-        <v>45018</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H28" s="17" t="s">
+      <c r="F32" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="I28" s="18" t="s">
+      <c r="I32" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="J28" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="16">
-        <v>45018</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H29" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="I29" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="J29" s="15">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="B30" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" s="25">
-        <v>45017</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="E30" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="F30" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="G30" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="H30" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="I30" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="J30" s="26">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B31" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" s="10">
-        <v>45017</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="I31" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="J31" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="B32" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C32" s="10">
-        <v>45017</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="I32" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="J32" s="5">
-        <v>4</v>
+      <c r="J32" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="63" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="C33" s="10">
-        <v>45017</v>
+        <v>45018</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>24</v>
+        <v>62</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="J33" s="5">
-        <v>3</v>
+        <v>90</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B34" s="9" t="s">
-        <v>108</v>
+      <c r="B34" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="C34" s="10">
         <v>45018</v>
       </c>
-      <c r="D34" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>109</v>
+      <c r="D34" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="J34" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="10">
+        <v>82</v>
+      </c>
+      <c r="C35" s="12">
         <v>45018</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>113</v>
+      <c r="F35" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>95</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B36" s="5" t="s">
-        <v>115</v>
+      <c r="B36" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="C36" s="10">
         <v>45018</v>
       </c>
       <c r="D36" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>102</v>
-      </c>
       <c r="F36" s="5" t="s">
         <v>18</v>
       </c>
@@ -2012,56 +1945,56 @@
         <v>19</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="I36" s="14" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="B37" s="5" t="s">
-        <v>118</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B37" s="15" t="s">
+        <v>88</v>
       </c>
       <c r="C37" s="10">
         <v>45018</v>
       </c>
       <c r="D37" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="F37" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I37" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="F37" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="I37" s="14" t="s">
-        <v>120</v>
-      </c>
       <c r="J37" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B38" s="9" t="s">
-        <v>121</v>
+      <c r="B38" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="C38" s="10">
         <v>45018</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>101</v>
+      <c r="D38" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>18</v>
@@ -2070,56 +2003,56 @@
         <v>19</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" ht="94.5" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C39" s="12">
+        <v>94</v>
+      </c>
+      <c r="C39" s="10">
         <v>45018</v>
       </c>
-      <c r="D39" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>125</v>
+      <c r="D39" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" ht="63" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="C40" s="10">
         <v>45018</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>18</v>
@@ -2128,27 +2061,27 @@
         <v>19</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="I40" s="14" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" ht="63" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="C41" s="10">
         <v>45018</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>18</v>
@@ -2157,27 +2090,27 @@
         <v>19</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="I41" s="14" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B42" s="9" t="s">
-        <v>133</v>
+      <c r="B42" s="15" t="s">
+        <v>103</v>
       </c>
       <c r="C42" s="10">
         <v>45018</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>18</v>
@@ -2186,27 +2119,27 @@
         <v>19</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="I42" s="14" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B43" s="5" t="s">
-        <v>137</v>
+      <c r="B43" s="15" t="s">
+        <v>107</v>
       </c>
       <c r="C43" s="10">
         <v>45018</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>18</v>
@@ -2215,27 +2148,27 @@
         <v>19</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="I43" s="14" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" ht="63" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="C44" s="10">
         <v>45018</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>18</v>
@@ -2244,27 +2177,27 @@
         <v>19</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="I44" s="14" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" ht="63" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="C45" s="10">
         <v>45018</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>18</v>
@@ -2273,27 +2206,27 @@
         <v>19</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I45" s="14" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B46" s="9" t="s">
-        <v>146</v>
+      <c r="B46" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="C46" s="10">
         <v>45018</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>18</v>
@@ -2302,129 +2235,13 @@
         <v>19</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B47" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C47" s="10">
-        <v>45018</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="I47" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="J47" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B48" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C48" s="10">
-        <v>45018</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="I48" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="J48" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B49" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C49" s="10">
-        <v>45018</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="I49" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="J49" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B50" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C50" s="10">
-        <v>45018</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="I50" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="J50" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2437,47 +2254,43 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I11" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="I12" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="I13" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="I14" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="I15" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="I16" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="I17" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="I18" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="I19" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="I20" r:id="rId11" xr:uid="{FEF5F2CF-0ADE-476F-9A12-9C5E4AF0FCCD}"/>
-    <hyperlink ref="I21" r:id="rId12" xr:uid="{B116EFB5-B07D-4161-98CC-70AFBB6CABCB}"/>
-    <hyperlink ref="I22" r:id="rId13" xr:uid="{CEB58491-143D-46EC-BF1D-324935CAAE84}"/>
-    <hyperlink ref="I23" r:id="rId14" xr:uid="{4E898F1A-9FA6-47B5-8B42-2A95521DC12E}"/>
-    <hyperlink ref="I24" r:id="rId15" xr:uid="{424172CC-2445-4D10-9AA5-0B5890887B07}"/>
-    <hyperlink ref="I25" r:id="rId16" xr:uid="{9BE297A9-10AF-4F8D-9B63-E1E3A63D65EE}"/>
-    <hyperlink ref="I26" r:id="rId17" xr:uid="{3525A563-F2F5-4C1B-A341-637FB3D2EAE9}"/>
-    <hyperlink ref="I27" r:id="rId18" xr:uid="{C7C0EC58-9939-4249-8983-30E0BFEFCB00}"/>
-    <hyperlink ref="I28" r:id="rId19" xr:uid="{8A0931BF-222C-4DD6-84B5-9609A7B10CED}"/>
-    <hyperlink ref="I29" r:id="rId20" xr:uid="{EB59EE34-AA33-4766-92F6-0BBCEDA9844A}"/>
-    <hyperlink ref="I42" r:id="rId21" xr:uid="{9BA448A8-7345-4F6A-9585-5793ED66D68B}"/>
-    <hyperlink ref="I43" r:id="rId22" xr:uid="{F76CDA9F-ED20-4C93-8B58-3ABED2E02868}"/>
-    <hyperlink ref="I30" r:id="rId23" xr:uid="{3D3AB6E9-1522-4AD6-A538-F77F84D8E8B4}"/>
-    <hyperlink ref="I31" r:id="rId24" xr:uid="{7167AB8F-03EB-4F0A-B9C1-E98751E736F7}"/>
-    <hyperlink ref="I32" r:id="rId25" xr:uid="{ADC5907A-E492-4A37-8A3B-FDEFD83420E1}"/>
-    <hyperlink ref="I33" r:id="rId26" xr:uid="{3D56AEC1-E68F-4196-B246-31E93F8D77A7}"/>
-    <hyperlink ref="I34" r:id="rId27" xr:uid="{37B84B95-205F-449D-A93B-CDBB512B8DC8}"/>
-    <hyperlink ref="I35" r:id="rId28" xr:uid="{867B8ACB-B890-4048-B12B-22385FB2CF49}"/>
-    <hyperlink ref="I36" r:id="rId29" xr:uid="{319E4D1D-8E72-4245-93EC-D3A9CF24E095}"/>
-    <hyperlink ref="I37" r:id="rId30" xr:uid="{37FDDA6D-EC34-46FF-B133-B11837E9AA86}"/>
-    <hyperlink ref="I38" r:id="rId31" xr:uid="{4125CAF4-C4E6-446B-90BC-74B9687B502B}"/>
-    <hyperlink ref="I39" r:id="rId32" xr:uid="{7535DD18-6F29-4DDF-9019-E29F0581C484}"/>
-    <hyperlink ref="I40" r:id="rId33" xr:uid="{E2CF79B6-21A8-4A23-A000-0BD0882E2E59}"/>
-    <hyperlink ref="I41" r:id="rId34" xr:uid="{77350AA4-CDEF-4023-80F4-29F2FDC94F4F}"/>
-    <hyperlink ref="I44" r:id="rId35" xr:uid="{545BF6D5-F01F-469E-B8E9-3DDE8B228AEF}"/>
-    <hyperlink ref="I45" r:id="rId36" xr:uid="{8B94A5D6-7875-4B4E-91E5-3216C7F3D73A}"/>
-    <hyperlink ref="I46" r:id="rId37" xr:uid="{B055B3FF-29F6-434E-B9B0-BFB9CEC78FA9}"/>
-    <hyperlink ref="I47" r:id="rId38" xr:uid="{3B629040-AD7C-4408-B568-20FE4FAD25B6}"/>
-    <hyperlink ref="I48" r:id="rId39" xr:uid="{AF5EADC1-F1CF-4B26-BCD3-C3D002F0647E}"/>
-    <hyperlink ref="I49" r:id="rId40" xr:uid="{6D37D85F-5694-4579-BF25-8691F073D81C}"/>
-    <hyperlink ref="I50" r:id="rId41" xr:uid="{47FC3323-AA5A-420E-94E2-BC2E597FF730}"/>
+    <hyperlink ref="I38" r:id="rId1" xr:uid="{9BA448A8-7345-4F6A-9585-5793ED66D68B}"/>
+    <hyperlink ref="I39" r:id="rId2" xr:uid="{F76CDA9F-ED20-4C93-8B58-3ABED2E02868}"/>
+    <hyperlink ref="I26" r:id="rId3" xr:uid="{3D3AB6E9-1522-4AD6-A538-F77F84D8E8B4}"/>
+    <hyperlink ref="I27" r:id="rId4" xr:uid="{7167AB8F-03EB-4F0A-B9C1-E98751E736F7}"/>
+    <hyperlink ref="I28" r:id="rId5" xr:uid="{ADC5907A-E492-4A37-8A3B-FDEFD83420E1}"/>
+    <hyperlink ref="I29" r:id="rId6" xr:uid="{3D56AEC1-E68F-4196-B246-31E93F8D77A7}"/>
+    <hyperlink ref="I30" r:id="rId7" xr:uid="{37B84B95-205F-449D-A93B-CDBB512B8DC8}"/>
+    <hyperlink ref="I31" r:id="rId8" xr:uid="{867B8ACB-B890-4048-B12B-22385FB2CF49}"/>
+    <hyperlink ref="I32" r:id="rId9" xr:uid="{319E4D1D-8E72-4245-93EC-D3A9CF24E095}"/>
+    <hyperlink ref="I33" r:id="rId10" xr:uid="{37FDDA6D-EC34-46FF-B133-B11837E9AA86}"/>
+    <hyperlink ref="I34" r:id="rId11" xr:uid="{4125CAF4-C4E6-446B-90BC-74B9687B502B}"/>
+    <hyperlink ref="I35" r:id="rId12" xr:uid="{7535DD18-6F29-4DDF-9019-E29F0581C484}"/>
+    <hyperlink ref="I36" r:id="rId13" xr:uid="{E2CF79B6-21A8-4A23-A000-0BD0882E2E59}"/>
+    <hyperlink ref="I37" r:id="rId14" xr:uid="{77350AA4-CDEF-4023-80F4-29F2FDC94F4F}"/>
+    <hyperlink ref="I40" r:id="rId15" xr:uid="{545BF6D5-F01F-469E-B8E9-3DDE8B228AEF}"/>
+    <hyperlink ref="I41" r:id="rId16" xr:uid="{8B94A5D6-7875-4B4E-91E5-3216C7F3D73A}"/>
+    <hyperlink ref="I42" r:id="rId17" xr:uid="{B055B3FF-29F6-434E-B9B0-BFB9CEC78FA9}"/>
+    <hyperlink ref="I43" r:id="rId18" xr:uid="{3B629040-AD7C-4408-B568-20FE4FAD25B6}"/>
+    <hyperlink ref="I44" r:id="rId19" xr:uid="{AF5EADC1-F1CF-4B26-BCD3-C3D002F0647E}"/>
+    <hyperlink ref="I45" r:id="rId20" xr:uid="{6D37D85F-5694-4579-BF25-8691F073D81C}"/>
+    <hyperlink ref="I46" r:id="rId21" xr:uid="{47FC3323-AA5A-420E-94E2-BC2E597FF730}"/>
+    <hyperlink ref="I10" r:id="rId22" xr:uid="{CD749333-E31F-4B75-A1F2-646343D4F56A}"/>
+    <hyperlink ref="I11" r:id="rId23" xr:uid="{2E7F4666-26E2-4BD9-9B44-E6C06C447EA6}"/>
+    <hyperlink ref="I12" r:id="rId24" xr:uid="{BE6EB737-B829-4F6D-9056-07D64C8EC9DB}"/>
+    <hyperlink ref="I13" r:id="rId25" xr:uid="{BF78649D-3952-4976-9E94-C3A5B3F302B6}"/>
+    <hyperlink ref="I14" r:id="rId26" xr:uid="{20A4E50A-173A-483D-BB82-46BC5BFE1950}"/>
+    <hyperlink ref="I15" r:id="rId27" xr:uid="{4D4D29BF-900C-4E11-9718-ABEA3F4DFDE8}"/>
+    <hyperlink ref="I16" r:id="rId28" xr:uid="{679D4833-26E9-4C79-9EF2-53409CB46DE8}"/>
+    <hyperlink ref="I17" r:id="rId29" xr:uid="{326E6545-9DA3-45E1-9723-438003D095CB}"/>
+    <hyperlink ref="I18" r:id="rId30" xr:uid="{0C49DF9C-269E-4A12-B7D5-9710558403A7}"/>
+    <hyperlink ref="I19" r:id="rId31" xr:uid="{0F5462E7-85BF-4F7D-B25A-C50FA61387EA}"/>
+    <hyperlink ref="I20" r:id="rId32" xr:uid="{910298AC-D889-484B-B678-9B8B3A51105B}"/>
+    <hyperlink ref="I21" r:id="rId33" xr:uid="{7DB903A4-60D2-45F1-BA60-52CE6A35E8FF}"/>
+    <hyperlink ref="I22" r:id="rId34" xr:uid="{8C791C5D-CFAB-4109-8E6F-74B911861D36}"/>
+    <hyperlink ref="I23" r:id="rId35" xr:uid="{BE7D4FD4-822C-4019-8E88-BDB6681DE45C}"/>
+    <hyperlink ref="I24" r:id="rId36" xr:uid="{93B1F095-A213-4A26-845A-C76B7BC1AF7F}"/>
+    <hyperlink ref="I25" r:id="rId37" xr:uid="{114DBF03-0530-48FE-AA9B-A003C6EEF3FD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2488,13 +2301,13 @@
           <x14:formula1>
             <xm:f>Lists!$B$4:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>F10:F31</xm:sqref>
+          <xm:sqref>F10:F27</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Lists!$B$8:$B$10</xm:f>
           </x14:formula1>
-          <xm:sqref>G10:G31</xm:sqref>
+          <xm:sqref>G10:G27</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2518,7 +2331,7 @@
   <sheetData>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -2526,12 +2339,12 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -2539,12 +2352,12 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
